--- a/Misc./Hour Log.xlsx
+++ b/Misc./Hour Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Git</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Board Saving</t>
+  </si>
+  <si>
+    <t>Moderator Login and Post Filtering</t>
   </si>
   <si>
     <t>Total</t>
@@ -526,24 +529,41 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="str">
-        <f>SUM(D3:D18)</f>
-        <v>79</v>
-      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42124.0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="str">
+        <f>SUM(D3:D19)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Misc./Hour Log.xlsx
+++ b/Misc./Hour Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Git</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Moderator Login and Post Filtering</t>
+  </si>
+  <si>
+    <t>Email Notifications</t>
   </si>
   <si>
     <t>Total</t>
@@ -546,24 +549,41 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="str">
-        <f>SUM(D3:D19)</f>
-        <v>83</v>
-      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6">
+        <v>42126.0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="str">
+        <f>SUM(D3:D20)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Misc./Hour Log.xlsx
+++ b/Misc./Hour Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Git</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Email Notifications</t>
+  </si>
+  <si>
+    <t>Background Beacon Scanning</t>
   </si>
   <si>
     <t>Total</t>
@@ -566,24 +569,40 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="str">
-        <f>SUM(D3:D20)</f>
-        <v>86</v>
-      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6">
+        <v>42129.0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5">
+        <v>91.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
